--- a/biology/Botanique/Arctous_alpina/Arctous_alpina.xlsx
+++ b/biology/Botanique/Arctous_alpina/Arctous_alpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arctous alpina est une espèce de plante à fleurs de la famille des Ericaceae. C'est un sous-arbrisseau originaire des régions subalpines et subarctiques de l'hémisphère Nord.
 Noms vernaculaires : Busserole des Alpes, Raisin d'ours des Alpes, Raisin d'ours alpin, Arctostaphyle alpin, Herbe à caribou.
@@ -512,9 +524,11 @@
           <t>Sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (30 janvier 2022)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (30 janvier 2022) (Attention liste brute contenant possiblement des synonymes) :
 Sous-espèces :
 Arctous alpina subsp. alpina
 Arctous alpina subsp. erythrocarpa M.M. Ivanova
